--- a/data/trans_orig/P14B32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B32-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAFB6BEE-A706-4F8D-9D59-C4F21BAB3032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{855509DA-18CC-4187-9B16-8AB4301FF5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{800ACC37-CA17-41F7-989B-8888A8245A99}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A9B805E-C192-4676-AF5A-6D1708DADA01}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="139">
   <si>
     <t>Población cuya incontinencia urinaria le limita en 2012 (Tasa respuesta: 1,08%)</t>
   </si>
@@ -141,19 +141,19 @@
     <t>29,25%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>41,09%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -162,19 +162,19 @@
     <t>70,75%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>58,91%</t>
   </si>
   <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -183,10 +183,10 @@
     <t>39,42%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
   </si>
   <si>
     <t>50,77%</t>
@@ -201,19 +201,19 @@
     <t>47,48%</t>
   </si>
   <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>49,23%</t>
@@ -228,64 +228,64 @@
     <t>52,52%</t>
   </si>
   <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -357,109 +357,103 @@
     <t>54,6%</t>
   </si>
   <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
   </si>
   <si>
     <t>47,88%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
+    <t>62,48%</t>
   </si>
   <si>
     <t>45,4%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>37,52%</t>
   </si>
   <si>
     <t>60,01%</t>
   </si>
   <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
   </si>
 </sst>
 </file>
@@ -871,7 +865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4414E463-3072-4A95-B46F-B24E31F6E706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAE99E4-3BEE-42E5-A8BD-3A87427DAA4D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2054,7 +2048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C16A0C-261A-489E-A290-D55006DD4ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3085B8-A35D-42DD-9312-BC475EB2761F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2944,10 +2938,10 @@
         <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2956,13 @@
         <v>7006</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -2977,13 +2971,13 @@
         <v>19383</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -2992,13 +2986,13 @@
         <v>26388</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3060,13 @@
         <v>10511</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3081,13 +3075,13 @@
         <v>21211</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -3096,13 +3090,13 @@
         <v>31722</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3111,13 @@
         <v>7005</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -3132,13 +3126,13 @@
         <v>30059</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -3147,13 +3141,13 @@
         <v>37064</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B32-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{855509DA-18CC-4187-9B16-8AB4301FF5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{032BAA9B-6D38-48A1-870F-AF41BF49C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A9B805E-C192-4676-AF5A-6D1708DADA01}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFA9C8D7-E01D-4D7B-AF44-48ED06045280}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="141">
   <si>
     <t>Población cuya incontinencia urinaria le limita en 2012 (Tasa respuesta: 1,08%)</t>
   </si>
@@ -141,19 +141,19 @@
     <t>29,25%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
   </si>
   <si>
     <t>41,09%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -162,19 +162,19 @@
     <t>70,75%</t>
   </si>
   <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>58,91%</t>
   </si>
   <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -183,115 +183,115 @@
     <t>39,42%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>50,77%</t>
   </si>
   <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>47,48%</t>
   </si>
   <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>49,23%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
   </si>
   <si>
     <t>52,52%</t>
   </si>
   <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya incontinencia urinaria le limita en 2015 (Tasa respuesta: 0,96%)</t>
+    <t>Población cuya incontinencia urinaria le limita en 2016 (Tasa respuesta: 0,96%)</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -306,7 +306,7 @@
     <t>58,96%</t>
   </si>
   <si>
-    <t>18,55%</t>
+    <t>18,6%</t>
   </si>
   <si>
     <t>50,55%</t>
@@ -315,145 +315,151 @@
     <t>41,04%</t>
   </si>
   <si>
-    <t>81,45%</t>
+    <t>81,4%</t>
   </si>
   <si>
     <t>37,17%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
   </si>
   <si>
     <t>44,15%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>62,83%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>55,85%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>54,6%</t>
   </si>
   <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>47,88%</t>
   </si>
   <si>
-    <t>62,48%</t>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>45,4%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>37,52%</t>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
   </si>
   <si>
     <t>60,01%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
 </sst>
 </file>
@@ -865,7 +871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAE99E4-3BEE-42E5-A8BD-3A87427DAA4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94A89EE-E4CE-4DB5-AF0D-93695F153EC4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2048,7 +2054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3085B8-A35D-42DD-9312-BC475EB2761F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B29A87A-A2F3-4347-8B3A-9CC1B9A21D5F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2938,10 +2944,10 @@
         <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2962,13 @@
         <v>7006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -2971,13 +2977,13 @@
         <v>19383</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -2986,13 +2992,13 @@
         <v>26388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3066,13 @@
         <v>10511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3075,13 +3081,13 @@
         <v>21211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -3090,13 +3096,13 @@
         <v>31722</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3117,13 @@
         <v>7005</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -3126,13 +3132,13 @@
         <v>30059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -3141,13 +3147,13 @@
         <v>37064</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
